--- a/ResultsOfTheSessionNUnitTestProject/ReportsNUnitTest/Resources/ExpelledStudentsReport.xlsx
+++ b/ResultsOfTheSessionNUnitTestProject/ReportsNUnitTest/Resources/ExpelledStudentsReport.xlsx
@@ -27,6 +27,15 @@
     <t>Patronymic</t>
   </si>
   <si>
+    <t>Nastya</t>
+  </si>
+  <si>
+    <t>Krishina</t>
+  </si>
+  <si>
+    <t>Ivanovna</t>
+  </si>
+  <si>
     <t>Vasya</t>
   </si>
   <si>
@@ -36,18 +45,18 @@
     <t>Vasilyevich</t>
   </si>
   <si>
-    <t>Nastya</t>
-  </si>
-  <si>
-    <t>Krishina</t>
-  </si>
-  <si>
-    <t>Ivanovna</t>
-  </si>
-  <si>
     <t>GR55 students to be expelled</t>
   </si>
   <si>
+    <t>Alexei</t>
+  </si>
+  <si>
+    <t>Alekseev</t>
+  </si>
+  <si>
+    <t>Alexeyevich</t>
+  </si>
+  <si>
     <t>Petya</t>
   </si>
   <si>
@@ -55,15 +64,6 @@
   </si>
   <si>
     <t>Petrovich</t>
-  </si>
-  <si>
-    <t>Alexei</t>
-  </si>
-  <si>
-    <t>Alekseev</t>
-  </si>
-  <si>
-    <t>Alexeyevich</t>
   </si>
 </sst>
 </file>
